--- a/biology/Histoire de la zoologie et de la botanique/Emilia_Snethlage/Emilia_Snethlage.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emilia_Snethlage/Emilia_Snethlage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emilia Snethlage (Henriette Mathilde Maria Elisabeth Emilie Snethlage) est une ornithologue et botaniste brésilienne d'origine allemande, née en 1868 et morte en 1929.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle explore le Brésil de 1905 à sa mort. Snethlage est la directrice du musée du Pará Emílio-Goeldi de 1914 à 1922 et est l’auteur de Catalogo das Aves Amazonicas (1914). Le perroquet Pyrrhura snethlageae, découvert en 2002, lui a été dédié. En outre, le Todirostre de Snethlage (Hemitriccus minor), qu'elle a découvert, porte son nom.
 Elle ne doit pas être confondue avec son neveu Emil Heinrich Snethlage (es) (1897-1939), ethnologue, zoologiste et botaniste.
@@ -543,7 +557,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Conure de Snethlage (Pyrrhura amazonum snethlage)
 Ouistiti de Snethlage (Callithrix emiliae ou Mico emiliae)
